--- a/CheckList_Final.xlsx
+++ b/CheckList_Final.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20352"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Werk\220\2024\Project\D3 (Final)\Marking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knock\OneDrive\Documents\UP\#Semester 2\IMY220\Project\IMY220_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEE7C93-402B-436D-B3A7-D99D724B465E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF60098-3420-4475-8053-A85EEDC43987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="9sub6SWNHua8xXmx+dlzyISY4/kLd62l4tl3wjOTM1s="/>
     </ext>
@@ -25,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="165">
   <si>
     <t xml:space="preserve">Position_Surname: </t>
   </si>
@@ -713,6 +724,12 @@
   </si>
   <si>
     <t>Can build and run project using Docker CLI</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -962,7 +979,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1001,6 +1018,9 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1220,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1416,28 +1436,36 @@
       <c r="A38" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="33"/>
+      <c r="B38" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C38" s="11"/>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="33"/>
+      <c r="B39" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C39" s="11"/>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B40" s="33"/>
+      <c r="B40" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C40" s="11"/>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="33"/>
+      <c r="B41" s="33" t="s">
+        <v>164</v>
+      </c>
       <c r="C41" s="11"/>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1450,84 +1478,108 @@
       <c r="A44" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="33"/>
+      <c r="B44" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C44" s="11"/>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B45" s="33"/>
+      <c r="B45" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C45" s="11"/>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="33"/>
+      <c r="B46" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C46" s="11"/>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="33"/>
+      <c r="B47" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C47" s="11"/>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B48" s="33"/>
+      <c r="B48" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C48" s="11"/>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B49" s="33"/>
+      <c r="B49" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C49" s="11"/>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B50" s="33"/>
+      <c r="B50" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C50" s="11"/>
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B51" s="33"/>
+      <c r="B51" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C51" s="11"/>
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B52" s="33"/>
+      <c r="B52" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C52" s="11"/>
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B53" s="33"/>
+      <c r="B53" s="33" t="s">
+        <v>164</v>
+      </c>
       <c r="C53" s="11"/>
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B54" s="33"/>
+      <c r="B54" s="33" t="s">
+        <v>164</v>
+      </c>
       <c r="C54" s="11"/>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B55" s="33"/>
+      <c r="B55" s="33" t="s">
+        <v>164</v>
+      </c>
       <c r="C55" s="11"/>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1552,35 +1604,45 @@
       <c r="A60" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B60" s="33"/>
+      <c r="B60" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C60" s="11"/>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B61" s="33"/>
+      <c r="B61" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C61" s="11"/>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="B62" s="33"/>
+      <c r="B62" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C62" s="11"/>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B63" s="33"/>
+      <c r="B63" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C63" s="11"/>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B64" s="33"/>
+      <c r="B64" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C64" s="11"/>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1602,38 +1664,48 @@
       <c r="A68" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B68" s="33"/>
+      <c r="B68" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C68" s="11"/>
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B69" s="33"/>
+      <c r="B69" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C69" s="11"/>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B70" s="33"/>
+      <c r="B70" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C70" s="11"/>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B71" s="33"/>
+      <c r="B71" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C71" s="11"/>
     </row>
-    <row r="72" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B72" s="33"/>
+      <c r="B72" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C72" s="11"/>
     </row>
-    <row r="73" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
         <v>61</v>
       </c>
@@ -1644,7 +1716,7 @@
       <c r="A74" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B74" s="33"/>
+      <c r="B74" s="34"/>
       <c r="C74" s="11"/>
     </row>
     <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1657,14 +1729,18 @@
       <c r="A77" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B77" s="33"/>
+      <c r="B77" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C77" s="11"/>
     </row>
     <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B78" s="33"/>
+      <c r="B78" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C78" s="11"/>
     </row>
     <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1678,7 +1754,9 @@
       <c r="A80" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B80" s="33"/>
+      <c r="B80" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C80" s="11"/>
     </row>
     <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1706,7 +1784,9 @@
       <c r="A84" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B84" s="33"/>
+      <c r="B84" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C84" s="11"/>
     </row>
     <row r="85" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1724,14 +1804,18 @@
       <c r="A88" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B88" s="33"/>
+      <c r="B88" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C88" s="11"/>
     </row>
     <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B89" s="33"/>
+      <c r="B89" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C89" s="11"/>
     </row>
     <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1774,7 +1858,9 @@
       <c r="A95" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="B95" s="33"/>
+      <c r="B95" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C95" s="11"/>
     </row>
     <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1802,7 +1888,9 @@
       <c r="A99" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="B99" s="33"/>
+      <c r="B99" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C99" s="11"/>
     </row>
     <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1816,7 +1904,9 @@
       <c r="A101" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B101" s="33"/>
+      <c r="B101" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C101" s="11"/>
     </row>
     <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1853,42 +1943,54 @@
       <c r="A107" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="B107" s="33"/>
+      <c r="B107" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C107" s="11"/>
     </row>
     <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="B108" s="33"/>
+      <c r="B108" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C108" s="11"/>
     </row>
     <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B109" s="33"/>
+      <c r="B109" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C109" s="11"/>
     </row>
     <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="B110" s="33"/>
+      <c r="B110" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C110" s="11"/>
     </row>
     <row r="111" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B111" s="33"/>
+      <c r="B111" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C111" s="11"/>
     </row>
     <row r="112" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="B112" s="33"/>
+      <c r="B112" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C112" s="11"/>
     </row>
     <row r="113" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1920,14 +2022,18 @@
       <c r="A117" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B117" s="33"/>
+      <c r="B117" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C117" s="11"/>
     </row>
     <row r="118" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="B118" s="33"/>
+      <c r="B118" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C118" s="11"/>
     </row>
     <row r="119" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1941,7 +2047,9 @@
       <c r="A120" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B120" s="33"/>
+      <c r="B120" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C120" s="11"/>
     </row>
     <row r="121" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1955,7 +2063,9 @@
       <c r="A122" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="B122" s="33"/>
+      <c r="B122" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C122" s="11"/>
     </row>
     <row r="123" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2177,14 +2287,18 @@
       <c r="A151" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B151" s="33"/>
+      <c r="B151" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C151" s="11"/>
     </row>
     <row r="152" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="B152" s="33"/>
+      <c r="B152" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C152" s="11"/>
     </row>
     <row r="153" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2209,21 +2323,27 @@
       <c r="A156" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B156" s="33"/>
+      <c r="B156" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C156" s="11"/>
     </row>
     <row r="157" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B157" s="33"/>
+      <c r="B157" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C157" s="11"/>
     </row>
     <row r="158" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B158" s="33"/>
+      <c r="B158" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C158" s="11"/>
     </row>
     <row r="159" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2237,21 +2357,27 @@
       <c r="A160" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B160" s="33"/>
+      <c r="B160" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C160" s="11"/>
     </row>
     <row r="161" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B161" s="33"/>
+      <c r="B161" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C161" s="11"/>
     </row>
     <row r="162" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B162" s="33"/>
+      <c r="B162" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C162" s="11"/>
     </row>
     <row r="163" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2265,7 +2391,9 @@
       <c r="A164" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B164" s="33"/>
+      <c r="B164" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C164" s="11"/>
     </row>
     <row r="165" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2329,28 +2457,36 @@
       <c r="A174" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B174" s="33"/>
+      <c r="B174" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C174" s="11"/>
     </row>
     <row r="175" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B175" s="33"/>
+      <c r="B175" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C175" s="11"/>
     </row>
     <row r="176" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B176" s="33"/>
+      <c r="B176" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C176" s="11"/>
     </row>
     <row r="177" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="B177" s="33"/>
+      <c r="B177" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C177" s="11"/>
     </row>
     <row r="178" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2375,21 +2511,27 @@
       <c r="A181" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B181" s="33"/>
+      <c r="B181" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C181" s="11"/>
     </row>
     <row r="182" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B182" s="33"/>
+      <c r="B182" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C182" s="11"/>
     </row>
     <row r="183" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B183" s="33"/>
+      <c r="B183" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C183" s="11"/>
       <c r="D183" s="13"/>
     </row>
@@ -2397,7 +2539,9 @@
       <c r="A184" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B184" s="33"/>
+      <c r="B184" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C184" s="11"/>
       <c r="D184" s="13"/>
     </row>
@@ -2405,7 +2549,9 @@
       <c r="A185" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B185" s="33"/>
+      <c r="B185" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C185" s="11"/>
       <c r="D185" s="13"/>
     </row>
@@ -2413,35 +2559,45 @@
       <c r="A186" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B186" s="33"/>
+      <c r="B186" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C186" s="11"/>
     </row>
     <row r="187" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="B187" s="33"/>
+      <c r="B187" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C187" s="11"/>
     </row>
     <row r="188" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="B188" s="33"/>
+      <c r="B188" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C188" s="11"/>
     </row>
     <row r="189" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="B189" s="33"/>
+      <c r="B189" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C189" s="11"/>
     </row>
     <row r="190" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B190" s="33"/>
+      <c r="B190" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C190" s="11"/>
     </row>
     <row r="191" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/CheckList_Final.xlsx
+++ b/CheckList_Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knock\OneDrive\Documents\UP\#Semester 2\IMY220\Project\IMY220_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CF60098-3420-4475-8053-A85EEDC43987}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E43A62-704F-4760-A11B-F5C88154A712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2964" yWindow="2964" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="166">
   <si>
     <t xml:space="preserve">Position_Surname: </t>
   </si>
@@ -730,6 +730,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -1240,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1586,7 +1589,9 @@
       <c r="A56" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B56" s="33"/>
+      <c r="B56" s="33" t="s">
+        <v>164</v>
+      </c>
       <c r="C56" s="11"/>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1836,7 +1841,9 @@
       <c r="A92" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B92" s="33"/>
+      <c r="B92" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C92" s="11"/>
     </row>
     <row r="93" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1897,7 +1904,9 @@
       <c r="A100" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B100" s="33"/>
+      <c r="B100" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C100" s="11"/>
     </row>
     <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1905,7 +1914,7 @@
         <v>85</v>
       </c>
       <c r="B101" s="33" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C101" s="11"/>
     </row>
@@ -1997,14 +2006,18 @@
       <c r="A113" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B113" s="33"/>
+      <c r="B113" s="33" t="s">
+        <v>164</v>
+      </c>
       <c r="C113" s="11"/>
     </row>
     <row r="114" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="B114" s="33"/>
+      <c r="B114" s="33" t="s">
+        <v>164</v>
+      </c>
       <c r="C114" s="11"/>
     </row>
     <row r="115" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/CheckList_Final.xlsx
+++ b/CheckList_Final.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knock\OneDrive\Documents\UP\#Semester 2\IMY220\Project\IMY220_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knock\OneDrive\Documents\UP\Semester 2\IMY220\Project\IMY220_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9E43A62-704F-4760-A11B-F5C88154A712}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176635F0-75D2-450F-A882-4756F9FD686A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2964" yWindow="2964" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3480" yWindow="1980" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="166">
   <si>
     <t xml:space="preserve">Position_Surname: </t>
   </si>
@@ -1243,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1714,7 +1714,9 @@
       <c r="A73" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B73" s="33"/>
+      <c r="B73" s="33" t="s">
+        <v>163</v>
+      </c>
       <c r="C73" s="11"/>
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">

--- a/CheckList_Final.xlsx
+++ b/CheckList_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knock\OneDrive\Documents\UP\Semester 2\IMY220\Project\IMY220_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176635F0-75D2-450F-A882-4756F9FD686A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F8A221-C725-4B26-BA4D-852C2A7B295E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3480" yWindow="1980" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="166">
-  <si>
-    <t xml:space="preserve">Position_Surname: </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="166">
   <si>
     <t>Yes/No</t>
   </si>
@@ -165,12 +162,6 @@
     <t>Project demo (Immersive technology lab on the 4th floor of the IT building)</t>
   </si>
   <si>
-    <t xml:space="preserve">Date: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Time: </t>
-  </si>
-  <si>
     <t>ClickUP submission</t>
   </si>
   <si>
@@ -726,13 +717,22 @@
     <t>Can build and run project using Docker CLI</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
-    <t>n</t>
+    <t>Position_Surname: 26_Knocklein</t>
+  </si>
+  <si>
+    <t>Date: 6 November 2024</t>
+  </si>
+  <si>
+    <t>Time: 13:00</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -1243,8 +1243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1010"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1258,152 +1258,172 @@
   <sheetData>
     <row r="1" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
-        <v>9</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
-        <v>10</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="33"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="16" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="33"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="33"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="33"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="33"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B22" s="33"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="33"/>
+        <v>16</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="33"/>
+        <v>17</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="33"/>
+        <v>18</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="33"/>
+        <v>19</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="27" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B29" s="9"/>
     </row>
     <row r="30" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B30" s="9"/>
     </row>
     <row r="31" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B31" s="9"/>
     </row>
@@ -1418,13 +1438,13 @@
     <row r="34" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="str">
         <f>A1</f>
-        <v xml:space="preserve">Position_Surname: </v>
+        <v>Position_Surname: 26_Knocklein</v>
       </c>
       <c r="B34" s="10"/>
     </row>
     <row r="35" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="11"/>
@@ -1432,229 +1452,231 @@
     <row r="36" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C38" s="11"/>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C39" s="11"/>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C40" s="11"/>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C41" s="11"/>
     </row>
     <row r="42" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="43" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C44" s="11"/>
     </row>
     <row r="45" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C45" s="11"/>
     </row>
     <row r="46" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B46" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C46" s="11"/>
     </row>
     <row r="47" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B47" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C47" s="11"/>
     </row>
     <row r="48" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B48" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C48" s="11"/>
     </row>
     <row r="49" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B49" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C49" s="11"/>
     </row>
     <row r="50" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B50" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C50" s="11"/>
     </row>
     <row r="51" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C51" s="11"/>
     </row>
     <row r="52" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B52" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C52" s="11"/>
     </row>
     <row r="53" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B53" s="33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C53" s="11"/>
     </row>
     <row r="54" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B54" s="33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C54" s="11"/>
     </row>
     <row r="55" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B55" s="33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C55" s="11"/>
     </row>
     <row r="56" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B56" s="33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C56" s="11"/>
     </row>
     <row r="57" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="58" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B60" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C60" s="11"/>
     </row>
     <row r="61" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B61" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C61" s="11"/>
     </row>
     <row r="62" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B62" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C62" s="11"/>
     </row>
     <row r="63" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B63" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C63" s="11"/>
     </row>
     <row r="64" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B64" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C64" s="11"/>
     </row>
     <row r="65" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B65" s="33"/>
+        <v>51</v>
+      </c>
+      <c r="B65" s="33" t="s">
+        <v>164</v>
+      </c>
       <c r="C65" s="11"/>
     </row>
     <row r="66" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1662,137 +1684,147 @@
     </row>
     <row r="67" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B68" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C68" s="11"/>
     </row>
     <row r="69" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B69" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C69" s="11"/>
     </row>
     <row r="70" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B70" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C70" s="11"/>
     </row>
     <row r="71" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B71" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C71" s="11"/>
     </row>
     <row r="72" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B72" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C72" s="11"/>
     </row>
     <row r="73" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B73" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C73" s="11"/>
     </row>
     <row r="74" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B74" s="34"/>
+        <v>59</v>
+      </c>
+      <c r="B74" s="34" t="s">
+        <v>164</v>
+      </c>
       <c r="C74" s="11"/>
     </row>
     <row r="75" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="76" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B77" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C77" s="11"/>
     </row>
     <row r="78" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B78" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C78" s="11"/>
     </row>
     <row r="79" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="B79" s="33"/>
+        <v>63</v>
+      </c>
+      <c r="B79" s="33" t="s">
+        <v>164</v>
+      </c>
       <c r="C79" s="11"/>
     </row>
     <row r="80" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B80" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C80" s="11"/>
     </row>
     <row r="81" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B81" s="33"/>
+        <v>65</v>
+      </c>
+      <c r="B81" s="33" t="s">
+        <v>164</v>
+      </c>
       <c r="C81" s="11"/>
     </row>
     <row r="82" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B82" s="33"/>
+        <v>66</v>
+      </c>
+      <c r="B82" s="33" t="s">
+        <v>164</v>
+      </c>
       <c r="C82" s="11"/>
     </row>
     <row r="83" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B83" s="33"/>
+        <v>67</v>
+      </c>
+      <c r="B83" s="33" t="s">
+        <v>165</v>
+      </c>
       <c r="C83" s="11"/>
     </row>
     <row r="84" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B84" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C84" s="11"/>
     </row>
@@ -1804,116 +1836,126 @@
     <row r="86" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="87" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B88" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C88" s="11"/>
     </row>
     <row r="89" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B89" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C89" s="11"/>
     </row>
     <row r="90" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B90" s="33"/>
+        <v>72</v>
+      </c>
+      <c r="B90" s="33" t="s">
+        <v>165</v>
+      </c>
       <c r="C90" s="11"/>
     </row>
     <row r="91" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="B91" s="33"/>
+        <v>73</v>
+      </c>
+      <c r="B91" s="33" t="s">
+        <v>164</v>
+      </c>
       <c r="C91" s="11"/>
     </row>
     <row r="92" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B92" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C92" s="11"/>
     </row>
     <row r="93" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="str">
         <f>A1</f>
-        <v xml:space="preserve">Position_Surname: </v>
+        <v>Position_Surname: 26_Knocklein</v>
       </c>
       <c r="B93" s="15"/>
       <c r="C93" s="10"/>
     </row>
     <row r="94" spans="1:3" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B94" s="15"/>
       <c r="C94" s="10"/>
     </row>
     <row r="95" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B95" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C95" s="11"/>
     </row>
     <row r="96" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B96" s="33"/>
+        <v>77</v>
+      </c>
+      <c r="B96" s="33" t="s">
+        <v>164</v>
+      </c>
       <c r="C96" s="11"/>
     </row>
     <row r="97" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B97" s="33"/>
+        <v>78</v>
+      </c>
+      <c r="B97" s="33" t="s">
+        <v>165</v>
+      </c>
       <c r="C97" s="11"/>
     </row>
     <row r="98" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B98" s="33"/>
+        <v>79</v>
+      </c>
+      <c r="B98" s="33" t="s">
+        <v>164</v>
+      </c>
       <c r="C98" s="11"/>
     </row>
     <row r="99" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B99" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C99" s="11"/>
     </row>
     <row r="100" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B100" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C100" s="11"/>
     </row>
     <row r="101" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="13" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B101" s="33" t="s">
         <v>165</v>
@@ -1922,23 +1964,29 @@
     </row>
     <row r="102" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B102" s="33"/>
+        <v>83</v>
+      </c>
+      <c r="B102" s="33" t="s">
+        <v>165</v>
+      </c>
       <c r="C102" s="11"/>
     </row>
     <row r="103" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B103" s="33"/>
+        <v>84</v>
+      </c>
+      <c r="B103" s="33" t="s">
+        <v>165</v>
+      </c>
       <c r="C103" s="11"/>
     </row>
     <row r="104" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B104" s="33"/>
+        <v>85</v>
+      </c>
+      <c r="B104" s="33" t="s">
+        <v>165</v>
+      </c>
       <c r="C104" s="11"/>
     </row>
     <row r="105" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1947,78 +1995,78 @@
     </row>
     <row r="106" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B107" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C107" s="11"/>
     </row>
     <row r="108" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B108" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C108" s="11"/>
     </row>
     <row r="109" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B109" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C109" s="11"/>
     </row>
     <row r="110" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B110" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C110" s="11"/>
     </row>
     <row r="111" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B111" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C111" s="11"/>
     </row>
     <row r="112" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="17" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B112" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C112" s="11"/>
     </row>
     <row r="113" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B113" s="33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C113" s="11"/>
     </row>
     <row r="114" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B114" s="33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C114" s="11"/>
     </row>
@@ -2028,73 +2076,81 @@
     </row>
     <row r="116" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B116" s="15"/>
       <c r="C116" s="10"/>
     </row>
     <row r="117" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B117" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C117" s="11"/>
     </row>
     <row r="118" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B118" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C118" s="11"/>
     </row>
     <row r="119" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="B119" s="33"/>
+        <v>98</v>
+      </c>
+      <c r="B119" s="33" t="s">
+        <v>165</v>
+      </c>
       <c r="C119" s="11"/>
     </row>
     <row r="120" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B120" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C120" s="11"/>
     </row>
     <row r="121" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="B121" s="33"/>
+        <v>100</v>
+      </c>
+      <c r="B121" s="33" t="s">
+        <v>165</v>
+      </c>
       <c r="C121" s="11"/>
     </row>
     <row r="122" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B122" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C122" s="11"/>
     </row>
     <row r="123" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B123" s="33"/>
+        <v>102</v>
+      </c>
+      <c r="B123" s="33" t="s">
+        <v>165</v>
+      </c>
       <c r="C123" s="11"/>
     </row>
     <row r="124" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="B124" s="33"/>
+        <v>103</v>
+      </c>
+      <c r="B124" s="33" t="s">
+        <v>165</v>
+      </c>
       <c r="C124" s="11"/>
     </row>
     <row r="125" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2104,79 +2160,97 @@
     </row>
     <row r="126" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B126" s="10"/>
       <c r="C126" s="10"/>
     </row>
     <row r="127" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B127" s="15"/>
       <c r="C127" s="10"/>
     </row>
     <row r="128" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="B128" s="33"/>
+        <v>106</v>
+      </c>
+      <c r="B128" s="33" t="s">
+        <v>164</v>
+      </c>
       <c r="C128" s="11"/>
     </row>
     <row r="129" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="B129" s="33"/>
+        <v>107</v>
+      </c>
+      <c r="B129" s="33" t="s">
+        <v>164</v>
+      </c>
       <c r="C129" s="11"/>
     </row>
     <row r="130" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B130" s="33"/>
+        <v>108</v>
+      </c>
+      <c r="B130" s="33" t="s">
+        <v>164</v>
+      </c>
       <c r="C130" s="11"/>
     </row>
     <row r="131" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="B131" s="33"/>
+        <v>109</v>
+      </c>
+      <c r="B131" s="33" t="s">
+        <v>164</v>
+      </c>
       <c r="C131" s="11"/>
     </row>
     <row r="132" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="B132" s="33"/>
+        <v>110</v>
+      </c>
+      <c r="B132" s="33" t="s">
+        <v>164</v>
+      </c>
       <c r="C132" s="11"/>
     </row>
     <row r="133" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="B133" s="33"/>
+        <v>111</v>
+      </c>
+      <c r="B133" s="33" t="s">
+        <v>164</v>
+      </c>
       <c r="C133" s="11"/>
     </row>
     <row r="134" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B134" s="33"/>
+        <v>112</v>
+      </c>
+      <c r="B134" s="33" t="s">
+        <v>164</v>
+      </c>
       <c r="C134" s="11"/>
     </row>
     <row r="135" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="B135" s="33"/>
+        <v>113</v>
+      </c>
+      <c r="B135" s="33" t="s">
+        <v>165</v>
+      </c>
       <c r="C135" s="11"/>
     </row>
     <row r="136" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="B136" s="33"/>
+        <v>114</v>
+      </c>
+      <c r="B136" s="33" t="s">
+        <v>165</v>
+      </c>
       <c r="C136" s="11"/>
     </row>
     <row r="137" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2189,7 +2263,7 @@
     </row>
     <row r="138" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B138" s="9"/>
       <c r="C138" s="11"/>
@@ -2200,7 +2274,7 @@
     </row>
     <row r="139" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B139" s="10"/>
       <c r="C139" s="10"/>
@@ -2257,7 +2331,7 @@
     <row r="145" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="str">
         <f>A1</f>
-        <v xml:space="preserve">Position_Surname: </v>
+        <v>Position_Surname: 26_Knocklein</v>
       </c>
       <c r="B145" s="10"/>
       <c r="C145" s="10"/>
@@ -2268,7 +2342,7 @@
     </row>
     <row r="146" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B146" s="9"/>
       <c r="C146" s="11"/>
@@ -2279,48 +2353,54 @@
     </row>
     <row r="148" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B148" s="10"/>
       <c r="C148" s="10"/>
     </row>
     <row r="149" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B149" s="33"/>
+        <v>119</v>
+      </c>
+      <c r="B149" s="33" t="s">
+        <v>164</v>
+      </c>
       <c r="C149" s="11"/>
     </row>
     <row r="150" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B150" s="33"/>
+        <v>120</v>
+      </c>
+      <c r="B150" s="33" t="s">
+        <v>164</v>
+      </c>
       <c r="C150" s="11"/>
     </row>
     <row r="151" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B151" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C151" s="11"/>
     </row>
     <row r="152" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B152" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C152" s="11"/>
     </row>
     <row r="153" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="B153" s="33"/>
+        <v>123</v>
+      </c>
+      <c r="B153" s="33" t="s">
+        <v>165</v>
+      </c>
       <c r="C153" s="11"/>
     </row>
     <row r="154" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2329,114 +2409,124 @@
     </row>
     <row r="155" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B155" s="33"/>
       <c r="C155" s="11"/>
     </row>
     <row r="156" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B156" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C156" s="11"/>
     </row>
     <row r="157" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B157" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C157" s="11"/>
     </row>
     <row r="158" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B158" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C158" s="11"/>
     </row>
     <row r="159" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B159" s="33"/>
+        <v>128</v>
+      </c>
+      <c r="B159" s="33" t="s">
+        <v>164</v>
+      </c>
       <c r="C159" s="11"/>
     </row>
     <row r="160" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B160" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C160" s="11"/>
     </row>
     <row r="161" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B161" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C161" s="11"/>
     </row>
     <row r="162" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B162" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C162" s="11"/>
     </row>
     <row r="163" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B163" s="33"/>
+        <v>132</v>
+      </c>
+      <c r="B163" s="33" t="s">
+        <v>164</v>
+      </c>
       <c r="C163" s="11"/>
     </row>
     <row r="164" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B164" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C164" s="11"/>
     </row>
     <row r="165" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="B165" s="33"/>
+        <v>134</v>
+      </c>
+      <c r="B165" s="33" t="s">
+        <v>165</v>
+      </c>
       <c r="C165" s="11"/>
     </row>
     <row r="166" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="B166" s="33"/>
+        <v>135</v>
+      </c>
+      <c r="B166" s="33" t="s">
+        <v>164</v>
+      </c>
       <c r="C166" s="11"/>
     </row>
     <row r="167" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="26" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B167" s="33"/>
       <c r="C167" s="11"/>
     </row>
     <row r="168" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="B168" s="33"/>
+        <v>137</v>
+      </c>
+      <c r="B168" s="33" t="s">
+        <v>165</v>
+      </c>
       <c r="C168" s="11"/>
     </row>
     <row r="169" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2445,14 +2535,14 @@
     </row>
     <row r="170" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B170" s="10"/>
       <c r="C170" s="10"/>
     </row>
     <row r="171" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B171" s="9"/>
       <c r="C171" s="11"/>
@@ -2463,52 +2553,54 @@
     </row>
     <row r="173" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B173" s="10"/>
       <c r="C173" s="10"/>
     </row>
     <row r="174" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B174" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C174" s="11"/>
     </row>
     <row r="175" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="13" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B175" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C175" s="11"/>
     </row>
     <row r="176" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="13" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B176" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C176" s="11"/>
     </row>
     <row r="177" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="13" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B177" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C177" s="11"/>
     </row>
     <row r="178" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B178" s="33"/>
+        <v>145</v>
+      </c>
+      <c r="B178" s="33" t="s">
+        <v>164</v>
+      </c>
       <c r="C178" s="11"/>
     </row>
     <row r="179" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2517,101 +2609,101 @@
     </row>
     <row r="180" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B180" s="10"/>
       <c r="C180" s="10"/>
     </row>
     <row r="181" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B181" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C181" s="11"/>
     </row>
     <row r="182" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B182" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C182" s="11"/>
     </row>
     <row r="183" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B183" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C183" s="11"/>
       <c r="D183" s="13"/>
     </row>
     <row r="184" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B184" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C184" s="11"/>
       <c r="D184" s="13"/>
     </row>
     <row r="185" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B185" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C185" s="11"/>
       <c r="D185" s="13"/>
     </row>
     <row r="186" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B186" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C186" s="11"/>
     </row>
     <row r="187" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="13" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B187" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C187" s="11"/>
     </row>
     <row r="188" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B188" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C188" s="11"/>
     </row>
     <row r="189" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="13" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B189" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C189" s="11"/>
     </row>
     <row r="190" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B190" s="33" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C190" s="11"/>
     </row>
@@ -2620,22 +2712,26 @@
     </row>
     <row r="192" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="28" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C192" s="18"/>
     </row>
     <row r="193" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="B193" s="33"/>
+        <v>158</v>
+      </c>
+      <c r="B193" s="33" t="s">
+        <v>164</v>
+      </c>
       <c r="C193" s="18"/>
     </row>
     <row r="194" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="B194" s="33"/>
+        <v>159</v>
+      </c>
+      <c r="B194" s="33" t="s">
+        <v>164</v>
+      </c>
       <c r="C194" s="18"/>
     </row>
     <row r="195" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2643,14 +2739,14 @@
     </row>
     <row r="196" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B196" s="9"/>
       <c r="C196" s="11"/>
     </row>
     <row r="197" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C197" s="10"/>
     </row>
